--- a/Data/Xls files and READMEs/WDFW sea otter survey data 1977-2015.xlsx
+++ b/Data/Xls files and READMEs/WDFW sea otter survey data 1977-2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19480" yWindow="2540" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="17360" yWindow="1220" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="WDFW sea otter data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3794" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4316" uniqueCount="187">
   <si>
     <t>Year</t>
   </si>
@@ -230,6 +230,366 @@
   <si>
     <t>TH</t>
   </si>
+  <si>
+    <t>WILLOUGHBY ROCK</t>
+  </si>
+  <si>
+    <t>HOGSBACK</t>
+  </si>
+  <si>
+    <t>DESTRUCTION ISLAND WEST END</t>
+  </si>
+  <si>
+    <t>DESTRUCTION I.  EAST END</t>
+  </si>
+  <si>
+    <t>DIAMOND ROCK</t>
+  </si>
+  <si>
+    <t>NORTH ROCK</t>
+  </si>
+  <si>
+    <t>1 MILE W. OF HOH HEAD (IN OPEN WATER)</t>
+  </si>
+  <si>
+    <t>PERKINS REEF</t>
+  </si>
+  <si>
+    <t>ROCK 443 COMPLEX</t>
+  </si>
+  <si>
+    <t>N. OF HOH HEAD</t>
+  </si>
+  <si>
+    <t>ALEXANDER ISLAND</t>
+  </si>
+  <si>
+    <t>GOODMAN CREEK</t>
+  </si>
+  <si>
+    <t>GIANTÕS GRAVEYARD*</t>
+  </si>
+  <si>
+    <t>S. OF CHILEAN MEMORIAL</t>
+  </si>
+  <si>
+    <t>N. OF CAPE JOHNSON</t>
+  </si>
+  <si>
+    <t>BLUFF POINT REEF*</t>
+  </si>
+  <si>
+    <t>SANDY ISLET/JAGGED ISLAND AREA</t>
+  </si>
+  <si>
+    <t>CEDAR CREEK/NORWEGIAN MEMORIAL*</t>
+  </si>
+  <si>
+    <t>YELLOWBANKS AREA</t>
+  </si>
+  <si>
+    <t>SAND POINT AREA*</t>
+  </si>
+  <si>
+    <t>INSHORE KELP BED EAST OF WHITE ROCK</t>
+  </si>
+  <si>
+    <t>WEDDING ROCKS/SE OZETTE ISLAND</t>
+  </si>
+  <si>
+    <t>OZETTE/CAPE ALAVA/BODELTEH*</t>
+  </si>
+  <si>
+    <t>S. OF OZETTE RIVER</t>
+  </si>
+  <si>
+    <t>DUK POINT*</t>
+  </si>
+  <si>
+    <t>INSHORE OF FATHER AND SON</t>
+  </si>
+  <si>
+    <t>N. OF ANDERSON POINT</t>
+  </si>
+  <si>
+    <t>TATOOSH ISLAND</t>
+  </si>
+  <si>
+    <t>MUSHROOM ROCK</t>
+  </si>
+  <si>
+    <t>DESTRUCTION ISLAND</t>
+  </si>
+  <si>
+    <t>MIDDLE ROCK/DIAMOND ROCK</t>
+  </si>
+  <si>
+    <t>PERKINS REEF (ROCK 443)</t>
+  </si>
+  <si>
+    <t>GIANTS GRAVEYARD</t>
+  </si>
+  <si>
+    <t>QUILLEUTE NEEDLES</t>
+  </si>
+  <si>
+    <t>CHILEAN MEMORIAL</t>
+  </si>
+  <si>
+    <t>CAPE JOHNSON/BLUFF POINT</t>
+  </si>
+  <si>
+    <t>SANDY ISLAND</t>
+  </si>
+  <si>
+    <t>JAGGED ISLAND</t>
+  </si>
+  <si>
+    <t>CEDAR CREEK./NORWEGIAN MEMORIAL</t>
+  </si>
+  <si>
+    <t>MIDWAY BEACH</t>
+  </si>
+  <si>
+    <t>YELLOW BANKS</t>
+  </si>
+  <si>
+    <t>SAND POINT</t>
+  </si>
+  <si>
+    <t>INSHORE WHITE ROCK SUBMARINE ROCK</t>
+  </si>
+  <si>
+    <t>WEDDING ROCKS</t>
+  </si>
+  <si>
+    <t>OZETTE/CAPE ALAVA/BODELTEH</t>
+  </si>
+  <si>
+    <t>SOUTH OF OZETTE RIVER</t>
+  </si>
+  <si>
+    <t>DUK POINT</t>
+  </si>
+  <si>
+    <t>POINT OF ARCHES</t>
+  </si>
+  <si>
+    <t>SOUTH OF PORTAGE HEAD</t>
+  </si>
+  <si>
+    <t>BAHOBOHOSH POINT</t>
+  </si>
+  <si>
+    <t>SOUTH RAFT RIVER</t>
+  </si>
+  <si>
+    <t>DESTRUCTION I.</t>
+  </si>
+  <si>
+    <t>HOH RIVER MOUTH</t>
+  </si>
+  <si>
+    <t>MIDDLE Rk/DIAMOND ROCK</t>
+  </si>
+  <si>
+    <t>CAPE JOHNSON/BLUFF PT.</t>
+  </si>
+  <si>
+    <t>CEDAR CRK./NOR. MEM.</t>
+  </si>
+  <si>
+    <t>SAND PT.</t>
+  </si>
+  <si>
+    <t>INSHORE WHITE ROCK /WEDDING ROCKS</t>
+  </si>
+  <si>
+    <t>OZETTE I.</t>
+  </si>
+  <si>
+    <t>WEST END OF BODELTEH</t>
+  </si>
+  <si>
+    <t>UMATILLA REEF</t>
+  </si>
+  <si>
+    <t>OZETTE RIVER</t>
+  </si>
+  <si>
+    <t>DUK PT.</t>
+  </si>
+  <si>
+    <t>FATHER AND SON</t>
+  </si>
+  <si>
+    <t>PT. OF ARCHES</t>
+  </si>
+  <si>
+    <t>ANDERSON PT.</t>
+  </si>
+  <si>
+    <t>S. PORTAGE HEAD</t>
+  </si>
+  <si>
+    <t>ARCHAWAT CREEK</t>
+  </si>
+  <si>
+    <t>MAKAH BAY</t>
+  </si>
+  <si>
+    <t>BAHOBOHOSH PT.</t>
+  </si>
+  <si>
+    <t>WAATCH PT.</t>
+  </si>
+  <si>
+    <t>FUCA PILLAR</t>
+  </si>
+  <si>
+    <t>TATOOSH I.</t>
+  </si>
+  <si>
+    <t>NORTH STEAMBOAT CREEK</t>
+  </si>
+  <si>
+    <t>KALALOCH</t>
+  </si>
+  <si>
+    <t>BROWNS POINT</t>
+  </si>
+  <si>
+    <t>RUBY BEACH</t>
+  </si>
+  <si>
+    <t>HOH HEAD</t>
+  </si>
+  <si>
+    <t>PERKINS REEF (ROCKS 443)</t>
+  </si>
+  <si>
+    <t>TOLEAK/STRAWBERRY PT.</t>
+  </si>
+  <si>
+    <t>RIALTO BEACH</t>
+  </si>
+  <si>
+    <t>S. of CHILEAN MEMORIAL</t>
+  </si>
+  <si>
+    <t>YELLOW BANKS AREA</t>
+  </si>
+  <si>
+    <t>SAND POINT*</t>
+  </si>
+  <si>
+    <t>INSHORE WHITE ROCK</t>
+  </si>
+  <si>
+    <t>OZETTE ISLAND</t>
+  </si>
+  <si>
+    <t>FATHER AND SON*</t>
+  </si>
+  <si>
+    <t>ANDERSON POINT*</t>
+  </si>
+  <si>
+    <t>SLANT ROCK</t>
+  </si>
+  <si>
+    <t>WAADAH ISLAND</t>
+  </si>
+  <si>
+    <t>SOUTH BEACH CAMPGROUND</t>
+  </si>
+  <si>
+    <t>NORTH BROWN PT.</t>
+  </si>
+  <si>
+    <t>DESTRUCTION I.1</t>
+  </si>
+  <si>
+    <t>MIDDLE RK/DIAMOND ROCK 1</t>
+  </si>
+  <si>
+    <t>NORTH ROCK1</t>
+  </si>
+  <si>
+    <t>GIANTS GRAVEYARD1</t>
+  </si>
+  <si>
+    <t>S. CAPE JOHNSON/CHILEAN MEMORIAL1</t>
+  </si>
+  <si>
+    <t>CAPE JOHNSON/BLUFF PT.1</t>
+  </si>
+  <si>
+    <t>SANDY I. 1</t>
+  </si>
+  <si>
+    <t>CEDAR CRK./NORWEGIAN MEM.1</t>
+  </si>
+  <si>
+    <t>MIDWAY POINT</t>
+  </si>
+  <si>
+    <t>0FFSHORE YELLOW BANKS</t>
+  </si>
+  <si>
+    <t>YELLOW BANKS AREA1</t>
+  </si>
+  <si>
+    <t>SAND PT.*1</t>
+  </si>
+  <si>
+    <t>INSHORE WHITE ROCK /WEDDING ROCKS*</t>
+  </si>
+  <si>
+    <t>DUK PT.*1</t>
+  </si>
+  <si>
+    <t>ANDERSON PT.*</t>
+  </si>
+  <si>
+    <t>KALALOCH/BROWNS PT.</t>
+  </si>
+  <si>
+    <t>DIAMOND ROCK2</t>
+  </si>
+  <si>
+    <t>PERKINS REEF (ROCK 443)1,2</t>
+  </si>
+  <si>
+    <t>QUILLLAYUTE NEEDLES</t>
+  </si>
+  <si>
+    <t>S. CAPE JOHNSON/CHILEAN MEMORIAL</t>
+  </si>
+  <si>
+    <t>CAPE JOHNSON/BLUFF PT.*1,2</t>
+  </si>
+  <si>
+    <t>SANDY I.</t>
+  </si>
+  <si>
+    <t>CEDAR CREEK</t>
+  </si>
+  <si>
+    <t>NORTH KAYOSTLA BEACH</t>
+  </si>
+  <si>
+    <t>SAND PT.*</t>
+  </si>
+  <si>
+    <t>SOUTH END OZETTE ISLAND</t>
+  </si>
+  <si>
+    <t>OZETTE/CAPE ALAVA/BODELTEH*1</t>
+  </si>
+  <si>
+    <t>DUK PT.*</t>
+  </si>
 </sst>
 </file>
 
@@ -271,11 +631,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,13 +914,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G749"/>
+  <dimension ref="A1:G1010"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B727" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B963" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G749" sqref="G727:G749"/>
+      <selection pane="bottomRight" activeCell="D984" sqref="D984:F1010"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17792,6 +18153,5292 @@
       </c>
       <c r="G749" s="1" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="750" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A750">
+        <v>2015</v>
+      </c>
+      <c r="B750" t="s">
+        <v>67</v>
+      </c>
+      <c r="C750" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D750">
+        <v>134</v>
+      </c>
+      <c r="E750">
+        <v>9</v>
+      </c>
+      <c r="F750">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A751">
+        <v>2015</v>
+      </c>
+      <c r="B751" t="s">
+        <v>68</v>
+      </c>
+      <c r="C751" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D751">
+        <v>3</v>
+      </c>
+      <c r="E751">
+        <v>0</v>
+      </c>
+      <c r="F751">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="752" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A752">
+        <v>2015</v>
+      </c>
+      <c r="B752" t="s">
+        <v>69</v>
+      </c>
+      <c r="C752" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D752">
+        <v>144</v>
+      </c>
+      <c r="E752">
+        <v>2</v>
+      </c>
+      <c r="F752">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A753">
+        <v>2015</v>
+      </c>
+      <c r="B753" t="s">
+        <v>70</v>
+      </c>
+      <c r="C753" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D753">
+        <v>240</v>
+      </c>
+      <c r="E753">
+        <v>0</v>
+      </c>
+      <c r="F753">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A754">
+        <v>2015</v>
+      </c>
+      <c r="B754" t="s">
+        <v>71</v>
+      </c>
+      <c r="C754" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D754">
+        <v>4</v>
+      </c>
+      <c r="E754">
+        <v>1</v>
+      </c>
+      <c r="F754">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A755">
+        <v>2015</v>
+      </c>
+      <c r="B755" t="s">
+        <v>72</v>
+      </c>
+      <c r="C755" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D755">
+        <v>2</v>
+      </c>
+      <c r="E755">
+        <v>0</v>
+      </c>
+      <c r="F755">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A756">
+        <v>2015</v>
+      </c>
+      <c r="B756" t="s">
+        <v>73</v>
+      </c>
+      <c r="C756" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D756">
+        <v>364</v>
+      </c>
+      <c r="E756">
+        <v>0</v>
+      </c>
+      <c r="F756">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A757">
+        <v>2015</v>
+      </c>
+      <c r="B757" t="s">
+        <v>74</v>
+      </c>
+      <c r="C757" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D757">
+        <v>15</v>
+      </c>
+      <c r="E757">
+        <v>1</v>
+      </c>
+      <c r="F757">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A758">
+        <v>2015</v>
+      </c>
+      <c r="B758" t="s">
+        <v>75</v>
+      </c>
+      <c r="C758" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D758">
+        <v>9</v>
+      </c>
+      <c r="E758">
+        <v>1</v>
+      </c>
+      <c r="F758">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A759">
+        <v>2015</v>
+      </c>
+      <c r="B759" t="s">
+        <v>76</v>
+      </c>
+      <c r="C759" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D759">
+        <v>1</v>
+      </c>
+      <c r="E759">
+        <v>0</v>
+      </c>
+      <c r="F759">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A760">
+        <v>2015</v>
+      </c>
+      <c r="B760" t="s">
+        <v>77</v>
+      </c>
+      <c r="C760" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D760">
+        <v>4</v>
+      </c>
+      <c r="E760">
+        <v>0</v>
+      </c>
+      <c r="F760">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A761">
+        <v>2015</v>
+      </c>
+      <c r="B761" t="s">
+        <v>78</v>
+      </c>
+      <c r="C761" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D761">
+        <v>1</v>
+      </c>
+      <c r="E761">
+        <v>0</v>
+      </c>
+      <c r="F761">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A762">
+        <v>2015</v>
+      </c>
+      <c r="B762" t="s">
+        <v>79</v>
+      </c>
+      <c r="C762" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D762">
+        <v>3</v>
+      </c>
+      <c r="E762">
+        <v>1</v>
+      </c>
+      <c r="F762">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A763">
+        <v>2015</v>
+      </c>
+      <c r="B763" t="s">
+        <v>80</v>
+      </c>
+      <c r="C763" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D763">
+        <v>3</v>
+      </c>
+      <c r="E763">
+        <v>1</v>
+      </c>
+      <c r="F763">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A764">
+        <v>2015</v>
+      </c>
+      <c r="B764" t="s">
+        <v>81</v>
+      </c>
+      <c r="C764" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D764">
+        <v>14</v>
+      </c>
+      <c r="E764">
+        <v>2</v>
+      </c>
+      <c r="F764">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A765">
+        <v>2015</v>
+      </c>
+      <c r="B765" t="s">
+        <v>82</v>
+      </c>
+      <c r="C765" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D765">
+        <v>86</v>
+      </c>
+      <c r="E765">
+        <v>0</v>
+      </c>
+      <c r="F765">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A766">
+        <v>2015</v>
+      </c>
+      <c r="B766" t="s">
+        <v>83</v>
+      </c>
+      <c r="C766" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D766">
+        <v>18</v>
+      </c>
+      <c r="E766">
+        <v>0</v>
+      </c>
+      <c r="F766">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A767">
+        <v>2015</v>
+      </c>
+      <c r="B767" t="s">
+        <v>84</v>
+      </c>
+      <c r="C767" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D767">
+        <v>29</v>
+      </c>
+      <c r="E767">
+        <v>0</v>
+      </c>
+      <c r="F767">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A768">
+        <v>2015</v>
+      </c>
+      <c r="B768" t="s">
+        <v>85</v>
+      </c>
+      <c r="C768" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D768">
+        <v>40</v>
+      </c>
+      <c r="E768">
+        <v>6</v>
+      </c>
+      <c r="F768">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A769">
+        <v>2015</v>
+      </c>
+      <c r="B769" t="s">
+        <v>86</v>
+      </c>
+      <c r="C769" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D769">
+        <v>86</v>
+      </c>
+      <c r="E769">
+        <v>9</v>
+      </c>
+      <c r="F769">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A770">
+        <v>2015</v>
+      </c>
+      <c r="B770" t="s">
+        <v>87</v>
+      </c>
+      <c r="C770" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D770">
+        <v>8</v>
+      </c>
+      <c r="E770">
+        <v>4</v>
+      </c>
+      <c r="F770">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A771">
+        <v>2015</v>
+      </c>
+      <c r="B771" t="s">
+        <v>88</v>
+      </c>
+      <c r="C771" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D771">
+        <v>27</v>
+      </c>
+      <c r="E771">
+        <v>5</v>
+      </c>
+      <c r="F771">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A772">
+        <v>2015</v>
+      </c>
+      <c r="B772" t="s">
+        <v>89</v>
+      </c>
+      <c r="C772" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D772">
+        <v>48</v>
+      </c>
+      <c r="E772">
+        <v>4</v>
+      </c>
+      <c r="F772">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A773">
+        <v>2015</v>
+      </c>
+      <c r="B773" t="s">
+        <v>90</v>
+      </c>
+      <c r="C773" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D773">
+        <v>1</v>
+      </c>
+      <c r="E773">
+        <v>0</v>
+      </c>
+      <c r="F773">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A774">
+        <v>2015</v>
+      </c>
+      <c r="B774" t="s">
+        <v>91</v>
+      </c>
+      <c r="C774" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D774">
+        <v>43</v>
+      </c>
+      <c r="E774">
+        <v>12</v>
+      </c>
+      <c r="F774">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A775">
+        <v>2015</v>
+      </c>
+      <c r="B775" t="s">
+        <v>92</v>
+      </c>
+      <c r="C775" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D775">
+        <v>1</v>
+      </c>
+      <c r="E775">
+        <v>0</v>
+      </c>
+      <c r="F775">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A776">
+        <v>2015</v>
+      </c>
+      <c r="B776" t="s">
+        <v>93</v>
+      </c>
+      <c r="C776" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D776">
+        <v>1</v>
+      </c>
+      <c r="E776">
+        <v>0</v>
+      </c>
+      <c r="F776">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A777">
+        <v>2015</v>
+      </c>
+      <c r="B777" t="s">
+        <v>94</v>
+      </c>
+      <c r="C777" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D777">
+        <v>6</v>
+      </c>
+      <c r="E777">
+        <v>0</v>
+      </c>
+      <c r="F777">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A778">
+        <v>2015</v>
+      </c>
+      <c r="B778" t="s">
+        <v>95</v>
+      </c>
+      <c r="C778" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D778">
+        <v>1</v>
+      </c>
+      <c r="E778">
+        <v>0</v>
+      </c>
+      <c r="F778">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A779">
+        <v>2013</v>
+      </c>
+      <c r="B779" t="s">
+        <v>67</v>
+      </c>
+      <c r="C779" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D779">
+        <v>3</v>
+      </c>
+      <c r="E779">
+        <v>0</v>
+      </c>
+      <c r="F779">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A780">
+        <v>2013</v>
+      </c>
+      <c r="B780" t="s">
+        <v>96</v>
+      </c>
+      <c r="C780" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D780">
+        <v>451</v>
+      </c>
+      <c r="E780">
+        <v>3</v>
+      </c>
+      <c r="F780">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A781">
+        <v>2013</v>
+      </c>
+      <c r="B781" t="s">
+        <v>97</v>
+      </c>
+      <c r="C781" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D781">
+        <v>5</v>
+      </c>
+      <c r="E781">
+        <v>1</v>
+      </c>
+      <c r="F781">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A782">
+        <v>2013</v>
+      </c>
+      <c r="B782" t="s">
+        <v>98</v>
+      </c>
+      <c r="C782" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D782">
+        <v>266</v>
+      </c>
+      <c r="E782">
+        <v>2</v>
+      </c>
+      <c r="F782">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A783">
+        <v>2013</v>
+      </c>
+      <c r="B783" t="s">
+        <v>77</v>
+      </c>
+      <c r="C783" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D783">
+        <v>5</v>
+      </c>
+      <c r="E783">
+        <v>1</v>
+      </c>
+      <c r="F783">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A784">
+        <v>2013</v>
+      </c>
+      <c r="B784" t="s">
+        <v>99</v>
+      </c>
+      <c r="C784" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D784">
+        <v>47</v>
+      </c>
+      <c r="E784">
+        <v>3</v>
+      </c>
+      <c r="F784">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A785">
+        <v>2013</v>
+      </c>
+      <c r="B785" t="s">
+        <v>100</v>
+      </c>
+      <c r="C785" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D785">
+        <v>3</v>
+      </c>
+      <c r="E785">
+        <v>0</v>
+      </c>
+      <c r="F785">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A786">
+        <v>2013</v>
+      </c>
+      <c r="B786" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C786" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D786">
+        <v>1</v>
+      </c>
+      <c r="E786">
+        <v>0</v>
+      </c>
+      <c r="F786">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A787">
+        <v>2013</v>
+      </c>
+      <c r="B787" t="s">
+        <v>102</v>
+      </c>
+      <c r="C787" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D787">
+        <v>112</v>
+      </c>
+      <c r="E787">
+        <v>4</v>
+      </c>
+      <c r="F787">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A788">
+        <v>2013</v>
+      </c>
+      <c r="B788" t="s">
+        <v>103</v>
+      </c>
+      <c r="C788" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D788">
+        <v>2</v>
+      </c>
+      <c r="E788">
+        <v>1</v>
+      </c>
+      <c r="F788">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A789">
+        <v>2013</v>
+      </c>
+      <c r="B789" t="s">
+        <v>104</v>
+      </c>
+      <c r="C789" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D789">
+        <v>1</v>
+      </c>
+      <c r="E789">
+        <v>0</v>
+      </c>
+      <c r="F789">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A790">
+        <v>2013</v>
+      </c>
+      <c r="B790" t="s">
+        <v>105</v>
+      </c>
+      <c r="C790" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D790">
+        <v>98</v>
+      </c>
+      <c r="E790">
+        <v>8</v>
+      </c>
+      <c r="F790">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A791">
+        <v>2013</v>
+      </c>
+      <c r="B791" t="s">
+        <v>106</v>
+      </c>
+      <c r="C791" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D791">
+        <v>2</v>
+      </c>
+      <c r="E791">
+        <v>0</v>
+      </c>
+      <c r="F791">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A792">
+        <v>2013</v>
+      </c>
+      <c r="B792" t="s">
+        <v>107</v>
+      </c>
+      <c r="C792" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D792">
+        <v>70</v>
+      </c>
+      <c r="E792">
+        <v>15</v>
+      </c>
+      <c r="F792">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A793">
+        <v>2013</v>
+      </c>
+      <c r="B793" t="s">
+        <v>108</v>
+      </c>
+      <c r="C793" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D793">
+        <v>65</v>
+      </c>
+      <c r="E793">
+        <v>6</v>
+      </c>
+      <c r="F793">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A794">
+        <v>2013</v>
+      </c>
+      <c r="B794" t="s">
+        <v>109</v>
+      </c>
+      <c r="C794" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D794">
+        <v>2</v>
+      </c>
+      <c r="E794">
+        <v>1</v>
+      </c>
+      <c r="F794">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A795">
+        <v>2013</v>
+      </c>
+      <c r="B795" t="s">
+        <v>110</v>
+      </c>
+      <c r="C795" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D795">
+        <v>1</v>
+      </c>
+      <c r="E795">
+        <v>0</v>
+      </c>
+      <c r="F795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A796">
+        <v>2013</v>
+      </c>
+      <c r="B796" t="s">
+        <v>111</v>
+      </c>
+      <c r="C796" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D796">
+        <v>30</v>
+      </c>
+      <c r="E796">
+        <v>6</v>
+      </c>
+      <c r="F796">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A797">
+        <v>2013</v>
+      </c>
+      <c r="B797" t="s">
+        <v>112</v>
+      </c>
+      <c r="C797" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D797">
+        <v>2</v>
+      </c>
+      <c r="E797">
+        <v>0</v>
+      </c>
+      <c r="F797">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A798">
+        <v>2013</v>
+      </c>
+      <c r="B798" t="s">
+        <v>113</v>
+      </c>
+      <c r="C798" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D798">
+        <v>34</v>
+      </c>
+      <c r="E798">
+        <v>6</v>
+      </c>
+      <c r="F798">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A799">
+        <v>2013</v>
+      </c>
+      <c r="B799" t="s">
+        <v>114</v>
+      </c>
+      <c r="C799" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D799">
+        <v>5</v>
+      </c>
+      <c r="E799">
+        <v>0</v>
+      </c>
+      <c r="F799">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A800">
+        <v>2013</v>
+      </c>
+      <c r="B800" t="s">
+        <v>115</v>
+      </c>
+      <c r="C800" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D800">
+        <v>1</v>
+      </c>
+      <c r="E800">
+        <v>0</v>
+      </c>
+      <c r="F800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A801">
+        <v>2013</v>
+      </c>
+      <c r="B801" t="s">
+        <v>116</v>
+      </c>
+      <c r="C801" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D801">
+        <v>1</v>
+      </c>
+      <c r="E801">
+        <v>0</v>
+      </c>
+      <c r="F801">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A802">
+        <v>2013</v>
+      </c>
+      <c r="B802" t="s">
+        <v>94</v>
+      </c>
+      <c r="C802" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D802">
+        <v>8</v>
+      </c>
+      <c r="E802">
+        <v>0</v>
+      </c>
+      <c r="F802">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A803">
+        <v>2012</v>
+      </c>
+      <c r="B803" t="s">
+        <v>117</v>
+      </c>
+      <c r="C803" t="s">
+        <v>64</v>
+      </c>
+      <c r="D803">
+        <v>3</v>
+      </c>
+      <c r="E803">
+        <v>0</v>
+      </c>
+      <c r="F803">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A804">
+        <v>2012</v>
+      </c>
+      <c r="B804" t="s">
+        <v>118</v>
+      </c>
+      <c r="C804" t="s">
+        <v>64</v>
+      </c>
+      <c r="D804">
+        <v>531</v>
+      </c>
+      <c r="E804">
+        <v>4</v>
+      </c>
+      <c r="F804">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A805">
+        <v>2012</v>
+      </c>
+      <c r="B805" t="s">
+        <v>119</v>
+      </c>
+      <c r="C805" t="s">
+        <v>64</v>
+      </c>
+      <c r="D805">
+        <v>10</v>
+      </c>
+      <c r="E805">
+        <v>0</v>
+      </c>
+      <c r="F805">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A806">
+        <v>2012</v>
+      </c>
+      <c r="B806" t="s">
+        <v>120</v>
+      </c>
+      <c r="C806" t="s">
+        <v>64</v>
+      </c>
+      <c r="D806">
+        <v>209</v>
+      </c>
+      <c r="E806">
+        <v>8</v>
+      </c>
+      <c r="F806">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A807">
+        <v>2012</v>
+      </c>
+      <c r="B807" t="s">
+        <v>72</v>
+      </c>
+      <c r="C807" t="s">
+        <v>64</v>
+      </c>
+      <c r="D807">
+        <v>1</v>
+      </c>
+      <c r="E807">
+        <v>0</v>
+      </c>
+      <c r="F807">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A808">
+        <v>2012</v>
+      </c>
+      <c r="B808" t="s">
+        <v>98</v>
+      </c>
+      <c r="C808" t="s">
+        <v>64</v>
+      </c>
+      <c r="D808">
+        <v>30</v>
+      </c>
+      <c r="E808">
+        <v>0</v>
+      </c>
+      <c r="F808">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A809">
+        <v>2012</v>
+      </c>
+      <c r="B809" t="s">
+        <v>99</v>
+      </c>
+      <c r="C809" t="s">
+        <v>64</v>
+      </c>
+      <c r="D809">
+        <v>16</v>
+      </c>
+      <c r="E809">
+        <v>0</v>
+      </c>
+      <c r="F809">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A810">
+        <v>2012</v>
+      </c>
+      <c r="B810" t="s">
+        <v>121</v>
+      </c>
+      <c r="C810" t="s">
+        <v>7</v>
+      </c>
+      <c r="D810">
+        <v>0</v>
+      </c>
+      <c r="E810">
+        <v>0</v>
+      </c>
+      <c r="F810">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A811">
+        <v>2012</v>
+      </c>
+      <c r="B811" t="s">
+        <v>122</v>
+      </c>
+      <c r="C811" t="s">
+        <v>7</v>
+      </c>
+      <c r="D811">
+        <v>143</v>
+      </c>
+      <c r="E811">
+        <v>1</v>
+      </c>
+      <c r="F811">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A812">
+        <v>2012</v>
+      </c>
+      <c r="B812" t="s">
+        <v>123</v>
+      </c>
+      <c r="C812" t="s">
+        <v>7</v>
+      </c>
+      <c r="D812">
+        <v>35</v>
+      </c>
+      <c r="E812">
+        <v>4</v>
+      </c>
+      <c r="F812">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A813">
+        <v>2012</v>
+      </c>
+      <c r="B813" t="s">
+        <v>124</v>
+      </c>
+      <c r="C813" t="s">
+        <v>7</v>
+      </c>
+      <c r="D813">
+        <v>3</v>
+      </c>
+      <c r="E813">
+        <v>0</v>
+      </c>
+      <c r="F813">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A814">
+        <v>2012</v>
+      </c>
+      <c r="B814" t="s">
+        <v>110</v>
+      </c>
+      <c r="C814" t="s">
+        <v>7</v>
+      </c>
+      <c r="D814">
+        <v>0</v>
+      </c>
+      <c r="E814">
+        <v>0</v>
+      </c>
+      <c r="F814">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A815">
+        <v>2012</v>
+      </c>
+      <c r="B815" t="s">
+        <v>125</v>
+      </c>
+      <c r="C815" t="s">
+        <v>7</v>
+      </c>
+      <c r="D815">
+        <v>14</v>
+      </c>
+      <c r="E815">
+        <v>1</v>
+      </c>
+      <c r="F815">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A816">
+        <v>2012</v>
+      </c>
+      <c r="B816" t="s">
+        <v>111</v>
+      </c>
+      <c r="C816" t="s">
+        <v>7</v>
+      </c>
+      <c r="D816">
+        <v>3</v>
+      </c>
+      <c r="E816">
+        <v>1</v>
+      </c>
+      <c r="F816">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A817">
+        <v>2012</v>
+      </c>
+      <c r="B817" t="s">
+        <v>126</v>
+      </c>
+      <c r="C817" t="s">
+        <v>7</v>
+      </c>
+      <c r="D817">
+        <v>0</v>
+      </c>
+      <c r="E817">
+        <v>0</v>
+      </c>
+      <c r="F817">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A818">
+        <v>2012</v>
+      </c>
+      <c r="B818" t="s">
+        <v>127</v>
+      </c>
+      <c r="C818" t="s">
+        <v>7</v>
+      </c>
+      <c r="D818">
+        <v>0</v>
+      </c>
+      <c r="E818">
+        <v>0</v>
+      </c>
+      <c r="F818">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A819">
+        <v>2012</v>
+      </c>
+      <c r="B819" t="s">
+        <v>128</v>
+      </c>
+      <c r="C819" t="s">
+        <v>7</v>
+      </c>
+      <c r="D819">
+        <v>0</v>
+      </c>
+      <c r="E819">
+        <v>0</v>
+      </c>
+      <c r="F819">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A820">
+        <v>2012</v>
+      </c>
+      <c r="B820" t="s">
+        <v>129</v>
+      </c>
+      <c r="C820" t="s">
+        <v>7</v>
+      </c>
+      <c r="D820">
+        <v>62</v>
+      </c>
+      <c r="E820">
+        <v>8</v>
+      </c>
+      <c r="F820">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A821">
+        <v>2012</v>
+      </c>
+      <c r="B821" t="s">
+        <v>130</v>
+      </c>
+      <c r="C821" t="s">
+        <v>7</v>
+      </c>
+      <c r="D821">
+        <v>6</v>
+      </c>
+      <c r="E821">
+        <v>2</v>
+      </c>
+      <c r="F821">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A822">
+        <v>2012</v>
+      </c>
+      <c r="B822" t="s">
+        <v>131</v>
+      </c>
+      <c r="C822" t="s">
+        <v>7</v>
+      </c>
+      <c r="D822">
+        <v>0</v>
+      </c>
+      <c r="E822">
+        <v>0</v>
+      </c>
+      <c r="F822">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A823">
+        <v>2012</v>
+      </c>
+      <c r="B823" t="s">
+        <v>132</v>
+      </c>
+      <c r="C823" t="s">
+        <v>7</v>
+      </c>
+      <c r="D823">
+        <v>7</v>
+      </c>
+      <c r="E823">
+        <v>0</v>
+      </c>
+      <c r="F823">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A824">
+        <v>2012</v>
+      </c>
+      <c r="B824" t="s">
+        <v>133</v>
+      </c>
+      <c r="C824" t="s">
+        <v>7</v>
+      </c>
+      <c r="D824">
+        <v>0</v>
+      </c>
+      <c r="E824">
+        <v>0</v>
+      </c>
+      <c r="F824">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A825">
+        <v>2012</v>
+      </c>
+      <c r="B825" t="s">
+        <v>134</v>
+      </c>
+      <c r="C825" t="s">
+        <v>7</v>
+      </c>
+      <c r="D825">
+        <v>0</v>
+      </c>
+      <c r="E825">
+        <v>0</v>
+      </c>
+      <c r="F825">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A826">
+        <v>2012</v>
+      </c>
+      <c r="B826" t="s">
+        <v>135</v>
+      </c>
+      <c r="C826" t="s">
+        <v>7</v>
+      </c>
+      <c r="D826">
+        <v>0</v>
+      </c>
+      <c r="E826">
+        <v>0</v>
+      </c>
+      <c r="F826">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A827">
+        <v>2012</v>
+      </c>
+      <c r="B827" t="s">
+        <v>136</v>
+      </c>
+      <c r="C827" t="s">
+        <v>7</v>
+      </c>
+      <c r="D827">
+        <v>0</v>
+      </c>
+      <c r="E827">
+        <v>0</v>
+      </c>
+      <c r="F827">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A828">
+        <v>2012</v>
+      </c>
+      <c r="B828" t="s">
+        <v>137</v>
+      </c>
+      <c r="C828" t="s">
+        <v>7</v>
+      </c>
+      <c r="D828">
+        <v>0</v>
+      </c>
+      <c r="E828">
+        <v>0</v>
+      </c>
+      <c r="F828">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A829">
+        <v>2012</v>
+      </c>
+      <c r="B829" t="s">
+        <v>138</v>
+      </c>
+      <c r="C829" t="s">
+        <v>7</v>
+      </c>
+      <c r="D829">
+        <v>0</v>
+      </c>
+      <c r="E829">
+        <v>0</v>
+      </c>
+      <c r="F829">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A830">
+        <v>2012</v>
+      </c>
+      <c r="B830" t="s">
+        <v>139</v>
+      </c>
+      <c r="C830" t="s">
+        <v>7</v>
+      </c>
+      <c r="D830">
+        <v>3</v>
+      </c>
+      <c r="E830">
+        <v>0</v>
+      </c>
+      <c r="F830">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A831">
+        <v>2011</v>
+      </c>
+      <c r="B831" t="s">
+        <v>67</v>
+      </c>
+      <c r="C831" t="s">
+        <v>64</v>
+      </c>
+      <c r="D831">
+        <v>2</v>
+      </c>
+      <c r="E831">
+        <v>2</v>
+      </c>
+      <c r="F831">
+        <f>E831+D831</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A832">
+        <v>2011</v>
+      </c>
+      <c r="B832" t="s">
+        <v>140</v>
+      </c>
+      <c r="C832" t="s">
+        <v>64</v>
+      </c>
+      <c r="D832">
+        <v>1</v>
+      </c>
+      <c r="E832">
+        <v>0</v>
+      </c>
+      <c r="F832">
+        <f t="shared" ref="F832:F895" si="0">E832+D832</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A833">
+        <v>2011</v>
+      </c>
+      <c r="B833" t="s">
+        <v>141</v>
+      </c>
+      <c r="C833" t="s">
+        <v>64</v>
+      </c>
+      <c r="D833">
+        <v>1</v>
+      </c>
+      <c r="E833">
+        <v>0</v>
+      </c>
+      <c r="F833">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A834">
+        <v>2011</v>
+      </c>
+      <c r="B834" t="s">
+        <v>142</v>
+      </c>
+      <c r="C834" t="s">
+        <v>64</v>
+      </c>
+      <c r="D834">
+        <v>2</v>
+      </c>
+      <c r="E834">
+        <v>0</v>
+      </c>
+      <c r="F834">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A835">
+        <v>2011</v>
+      </c>
+      <c r="B835" t="s">
+        <v>143</v>
+      </c>
+      <c r="C835" t="s">
+        <v>64</v>
+      </c>
+      <c r="D835">
+        <v>1</v>
+      </c>
+      <c r="E835">
+        <v>0</v>
+      </c>
+      <c r="F835">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A836">
+        <v>2011</v>
+      </c>
+      <c r="B836" t="s">
+        <v>96</v>
+      </c>
+      <c r="C836" t="s">
+        <v>64</v>
+      </c>
+      <c r="D836">
+        <v>492</v>
+      </c>
+      <c r="E836">
+        <v>0</v>
+      </c>
+      <c r="F836">
+        <f t="shared" si="0"/>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A837">
+        <v>2011</v>
+      </c>
+      <c r="B837" t="s">
+        <v>97</v>
+      </c>
+      <c r="C837" t="s">
+        <v>64</v>
+      </c>
+      <c r="D837">
+        <v>154</v>
+      </c>
+      <c r="E837">
+        <v>1</v>
+      </c>
+      <c r="F837">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A838">
+        <v>2011</v>
+      </c>
+      <c r="B838" t="s">
+        <v>144</v>
+      </c>
+      <c r="C838" t="s">
+        <v>64</v>
+      </c>
+      <c r="D838">
+        <v>1</v>
+      </c>
+      <c r="E838">
+        <v>0</v>
+      </c>
+      <c r="F838">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A839">
+        <v>2011</v>
+      </c>
+      <c r="B839" t="s">
+        <v>145</v>
+      </c>
+      <c r="C839" t="s">
+        <v>64</v>
+      </c>
+      <c r="D839">
+        <v>29</v>
+      </c>
+      <c r="E839">
+        <v>3</v>
+      </c>
+      <c r="F839">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A840">
+        <v>2011</v>
+      </c>
+      <c r="B840" t="s">
+        <v>77</v>
+      </c>
+      <c r="C840" t="s">
+        <v>64</v>
+      </c>
+      <c r="D840">
+        <v>1</v>
+      </c>
+      <c r="E840">
+        <v>0</v>
+      </c>
+      <c r="F840">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A841">
+        <v>2011</v>
+      </c>
+      <c r="B841" t="s">
+        <v>78</v>
+      </c>
+      <c r="C841" t="s">
+        <v>64</v>
+      </c>
+      <c r="D841">
+        <v>6</v>
+      </c>
+      <c r="E841">
+        <v>4</v>
+      </c>
+      <c r="F841">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A842">
+        <v>2011</v>
+      </c>
+      <c r="B842" t="s">
+        <v>146</v>
+      </c>
+      <c r="C842" t="s">
+        <v>64</v>
+      </c>
+      <c r="D842">
+        <v>1</v>
+      </c>
+      <c r="E842">
+        <v>1</v>
+      </c>
+      <c r="F842">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A843">
+        <v>2011</v>
+      </c>
+      <c r="B843" t="s">
+        <v>99</v>
+      </c>
+      <c r="C843" t="s">
+        <v>64</v>
+      </c>
+      <c r="D843">
+        <v>9</v>
+      </c>
+      <c r="E843">
+        <v>5</v>
+      </c>
+      <c r="F843">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A844">
+        <v>2011</v>
+      </c>
+      <c r="B844" t="s">
+        <v>147</v>
+      </c>
+      <c r="C844" t="s">
+        <v>7</v>
+      </c>
+      <c r="D844">
+        <v>0</v>
+      </c>
+      <c r="E844">
+        <v>0</v>
+      </c>
+      <c r="F844">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A845">
+        <v>2011</v>
+      </c>
+      <c r="B845" t="s">
+        <v>148</v>
+      </c>
+      <c r="C845" t="s">
+        <v>7</v>
+      </c>
+      <c r="D845">
+        <v>0</v>
+      </c>
+      <c r="E845">
+        <v>0</v>
+      </c>
+      <c r="F845">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A846">
+        <v>2011</v>
+      </c>
+      <c r="B846" t="s">
+        <v>121</v>
+      </c>
+      <c r="C846" t="s">
+        <v>7</v>
+      </c>
+      <c r="D846">
+        <v>10</v>
+      </c>
+      <c r="E846">
+        <v>1</v>
+      </c>
+      <c r="F846">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A847">
+        <v>2011</v>
+      </c>
+      <c r="B847" t="s">
+        <v>103</v>
+      </c>
+      <c r="C847" t="s">
+        <v>7</v>
+      </c>
+      <c r="D847">
+        <v>112</v>
+      </c>
+      <c r="E847">
+        <v>0</v>
+      </c>
+      <c r="F847">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A848">
+        <v>2011</v>
+      </c>
+      <c r="B848" t="s">
+        <v>104</v>
+      </c>
+      <c r="C848" t="s">
+        <v>7</v>
+      </c>
+      <c r="D848">
+        <v>0</v>
+      </c>
+      <c r="E848">
+        <v>0</v>
+      </c>
+      <c r="F848">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A849">
+        <v>2011</v>
+      </c>
+      <c r="B849" t="s">
+        <v>84</v>
+      </c>
+      <c r="C849" t="s">
+        <v>7</v>
+      </c>
+      <c r="D849">
+        <v>91</v>
+      </c>
+      <c r="E849">
+        <v>4</v>
+      </c>
+      <c r="F849">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A850">
+        <v>2011</v>
+      </c>
+      <c r="B850" t="s">
+        <v>149</v>
+      </c>
+      <c r="C850" t="s">
+        <v>7</v>
+      </c>
+      <c r="D850">
+        <v>50</v>
+      </c>
+      <c r="E850">
+        <v>3</v>
+      </c>
+      <c r="F850">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A851">
+        <v>2011</v>
+      </c>
+      <c r="B851" t="s">
+        <v>150</v>
+      </c>
+      <c r="C851" t="s">
+        <v>7</v>
+      </c>
+      <c r="D851">
+        <v>17</v>
+      </c>
+      <c r="E851">
+        <v>4</v>
+      </c>
+      <c r="F851">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A852">
+        <v>2011</v>
+      </c>
+      <c r="B852" t="s">
+        <v>151</v>
+      </c>
+      <c r="C852" t="s">
+        <v>7</v>
+      </c>
+      <c r="D852">
+        <v>3</v>
+      </c>
+      <c r="E852">
+        <v>0</v>
+      </c>
+      <c r="F852">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A853">
+        <v>2011</v>
+      </c>
+      <c r="B853" t="s">
+        <v>110</v>
+      </c>
+      <c r="C853" t="s">
+        <v>7</v>
+      </c>
+      <c r="D853">
+        <v>0</v>
+      </c>
+      <c r="E853">
+        <v>0</v>
+      </c>
+      <c r="F853">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A854">
+        <v>2011</v>
+      </c>
+      <c r="B854" t="s">
+        <v>152</v>
+      </c>
+      <c r="C854" t="s">
+        <v>7</v>
+      </c>
+      <c r="D854">
+        <v>5</v>
+      </c>
+      <c r="E854">
+        <v>1</v>
+      </c>
+      <c r="F854">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A855">
+        <v>2011</v>
+      </c>
+      <c r="B855" t="s">
+        <v>89</v>
+      </c>
+      <c r="C855" t="s">
+        <v>7</v>
+      </c>
+      <c r="D855">
+        <v>8</v>
+      </c>
+      <c r="E855">
+        <v>3</v>
+      </c>
+      <c r="F855">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A856">
+        <v>2011</v>
+      </c>
+      <c r="B856" t="s">
+        <v>128</v>
+      </c>
+      <c r="C856" t="s">
+        <v>7</v>
+      </c>
+      <c r="D856">
+        <v>2</v>
+      </c>
+      <c r="E856">
+        <v>0</v>
+      </c>
+      <c r="F856">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A857">
+        <v>2011</v>
+      </c>
+      <c r="B857" t="s">
+        <v>91</v>
+      </c>
+      <c r="C857" t="s">
+        <v>7</v>
+      </c>
+      <c r="D857">
+        <v>93</v>
+      </c>
+      <c r="E857">
+        <v>13</v>
+      </c>
+      <c r="F857">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A858">
+        <v>2011</v>
+      </c>
+      <c r="B858" t="s">
+        <v>153</v>
+      </c>
+      <c r="C858" t="s">
+        <v>7</v>
+      </c>
+      <c r="D858">
+        <v>1</v>
+      </c>
+      <c r="E858">
+        <v>0</v>
+      </c>
+      <c r="F858">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A859">
+        <v>2011</v>
+      </c>
+      <c r="B859" t="s">
+        <v>131</v>
+      </c>
+      <c r="C859" t="s">
+        <v>7</v>
+      </c>
+      <c r="D859">
+        <v>4</v>
+      </c>
+      <c r="E859">
+        <v>0</v>
+      </c>
+      <c r="F859">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A860">
+        <v>2011</v>
+      </c>
+      <c r="B860" t="s">
+        <v>154</v>
+      </c>
+      <c r="C860" t="s">
+        <v>7</v>
+      </c>
+      <c r="D860">
+        <v>6</v>
+      </c>
+      <c r="E860">
+        <v>0</v>
+      </c>
+      <c r="F860">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A861">
+        <v>2011</v>
+      </c>
+      <c r="B861" t="s">
+        <v>94</v>
+      </c>
+      <c r="C861" t="s">
+        <v>7</v>
+      </c>
+      <c r="D861">
+        <v>7</v>
+      </c>
+      <c r="E861">
+        <v>0</v>
+      </c>
+      <c r="F861">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A862">
+        <v>2011</v>
+      </c>
+      <c r="B862" t="s">
+        <v>155</v>
+      </c>
+      <c r="C862" t="s">
+        <v>7</v>
+      </c>
+      <c r="D862">
+        <v>1</v>
+      </c>
+      <c r="E862">
+        <v>0</v>
+      </c>
+      <c r="F862">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A863">
+        <v>2011</v>
+      </c>
+      <c r="B863" t="s">
+        <v>156</v>
+      </c>
+      <c r="C863" t="s">
+        <v>7</v>
+      </c>
+      <c r="D863">
+        <v>1</v>
+      </c>
+      <c r="E863">
+        <v>0</v>
+      </c>
+      <c r="F863">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A864">
+        <v>2010</v>
+      </c>
+      <c r="B864" t="s">
+        <v>67</v>
+      </c>
+      <c r="C864" t="s">
+        <v>64</v>
+      </c>
+      <c r="D864">
+        <v>0</v>
+      </c>
+      <c r="E864">
+        <v>0</v>
+      </c>
+      <c r="F864">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A865">
+        <v>2010</v>
+      </c>
+      <c r="B865" t="s">
+        <v>140</v>
+      </c>
+      <c r="C865" t="s">
+        <v>64</v>
+      </c>
+      <c r="D865">
+        <v>0</v>
+      </c>
+      <c r="E865">
+        <v>0</v>
+      </c>
+      <c r="F865">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A866">
+        <v>2010</v>
+      </c>
+      <c r="B866" t="s">
+        <v>141</v>
+      </c>
+      <c r="C866" t="s">
+        <v>64</v>
+      </c>
+      <c r="D866">
+        <v>0</v>
+      </c>
+      <c r="E866">
+        <v>0</v>
+      </c>
+      <c r="F866">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A867">
+        <v>2010</v>
+      </c>
+      <c r="B867" t="s">
+        <v>142</v>
+      </c>
+      <c r="C867" t="s">
+        <v>64</v>
+      </c>
+      <c r="D867">
+        <v>0</v>
+      </c>
+      <c r="E867">
+        <v>0</v>
+      </c>
+      <c r="F867">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A868">
+        <v>2010</v>
+      </c>
+      <c r="B868" t="s">
+        <v>143</v>
+      </c>
+      <c r="C868" t="s">
+        <v>64</v>
+      </c>
+      <c r="D868">
+        <v>2</v>
+      </c>
+      <c r="E868">
+        <v>0</v>
+      </c>
+      <c r="F868">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A869">
+        <v>2010</v>
+      </c>
+      <c r="B869" t="s">
+        <v>96</v>
+      </c>
+      <c r="C869" t="s">
+        <v>64</v>
+      </c>
+      <c r="D869">
+        <v>391</v>
+      </c>
+      <c r="E869">
+        <v>5</v>
+      </c>
+      <c r="F869">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A870">
+        <v>2010</v>
+      </c>
+      <c r="B870" t="s">
+        <v>97</v>
+      </c>
+      <c r="C870" t="s">
+        <v>64</v>
+      </c>
+      <c r="D870">
+        <v>193</v>
+      </c>
+      <c r="E870">
+        <v>1</v>
+      </c>
+      <c r="F870">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A871">
+        <v>2010</v>
+      </c>
+      <c r="B871" t="s">
+        <v>144</v>
+      </c>
+      <c r="C871" t="s">
+        <v>64</v>
+      </c>
+      <c r="D871">
+        <v>0</v>
+      </c>
+      <c r="E871">
+        <v>0</v>
+      </c>
+      <c r="F871">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A872">
+        <v>2010</v>
+      </c>
+      <c r="B872" t="s">
+        <v>145</v>
+      </c>
+      <c r="C872" t="s">
+        <v>64</v>
+      </c>
+      <c r="D872">
+        <v>0</v>
+      </c>
+      <c r="E872">
+        <v>0</v>
+      </c>
+      <c r="F872">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A873">
+        <v>2010</v>
+      </c>
+      <c r="B873" t="s">
+        <v>77</v>
+      </c>
+      <c r="C873" t="s">
+        <v>64</v>
+      </c>
+      <c r="D873">
+        <v>0</v>
+      </c>
+      <c r="E873">
+        <v>0</v>
+      </c>
+      <c r="F873">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A874">
+        <v>2010</v>
+      </c>
+      <c r="B874" t="s">
+        <v>78</v>
+      </c>
+      <c r="C874" t="s">
+        <v>64</v>
+      </c>
+      <c r="D874">
+        <v>0</v>
+      </c>
+      <c r="E874">
+        <v>0</v>
+      </c>
+      <c r="F874">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A875">
+        <v>2010</v>
+      </c>
+      <c r="B875" t="s">
+        <v>146</v>
+      </c>
+      <c r="C875" t="s">
+        <v>64</v>
+      </c>
+      <c r="D875">
+        <v>0</v>
+      </c>
+      <c r="E875">
+        <v>0</v>
+      </c>
+      <c r="F875">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A876">
+        <v>2010</v>
+      </c>
+      <c r="B876" t="s">
+        <v>99</v>
+      </c>
+      <c r="C876" t="s">
+        <v>64</v>
+      </c>
+      <c r="D876">
+        <v>2</v>
+      </c>
+      <c r="E876">
+        <v>1</v>
+      </c>
+      <c r="F876">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A877">
+        <v>2010</v>
+      </c>
+      <c r="B877" t="s">
+        <v>147</v>
+      </c>
+      <c r="C877" t="s">
+        <v>7</v>
+      </c>
+      <c r="D877">
+        <v>1</v>
+      </c>
+      <c r="E877">
+        <v>0</v>
+      </c>
+      <c r="F877">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A878">
+        <v>2010</v>
+      </c>
+      <c r="B878" t="s">
+        <v>148</v>
+      </c>
+      <c r="C878" t="s">
+        <v>7</v>
+      </c>
+      <c r="D878">
+        <v>16</v>
+      </c>
+      <c r="E878">
+        <v>4</v>
+      </c>
+      <c r="F878">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A879">
+        <v>2010</v>
+      </c>
+      <c r="B879" t="s">
+        <v>121</v>
+      </c>
+      <c r="C879" t="s">
+        <v>7</v>
+      </c>
+      <c r="D879">
+        <v>171</v>
+      </c>
+      <c r="E879">
+        <v>0</v>
+      </c>
+      <c r="F879">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A880">
+        <v>2010</v>
+      </c>
+      <c r="B880" t="s">
+        <v>103</v>
+      </c>
+      <c r="C880" t="s">
+        <v>7</v>
+      </c>
+      <c r="D880">
+        <v>27</v>
+      </c>
+      <c r="E880">
+        <v>1</v>
+      </c>
+      <c r="F880">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A881">
+        <v>2010</v>
+      </c>
+      <c r="B881" t="s">
+        <v>104</v>
+      </c>
+      <c r="C881" t="s">
+        <v>7</v>
+      </c>
+      <c r="D881">
+        <v>1</v>
+      </c>
+      <c r="E881">
+        <v>0</v>
+      </c>
+      <c r="F881">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A882">
+        <v>2010</v>
+      </c>
+      <c r="B882" t="s">
+        <v>84</v>
+      </c>
+      <c r="C882" t="s">
+        <v>7</v>
+      </c>
+      <c r="D882">
+        <v>20</v>
+      </c>
+      <c r="E882">
+        <v>2</v>
+      </c>
+      <c r="F882">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A883">
+        <v>2010</v>
+      </c>
+      <c r="B883" t="s">
+        <v>149</v>
+      </c>
+      <c r="C883" t="s">
+        <v>7</v>
+      </c>
+      <c r="D883">
+        <v>11</v>
+      </c>
+      <c r="E883">
+        <v>0</v>
+      </c>
+      <c r="F883">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A884">
+        <v>2010</v>
+      </c>
+      <c r="B884" t="s">
+        <v>150</v>
+      </c>
+      <c r="C884" t="s">
+        <v>7</v>
+      </c>
+      <c r="D884">
+        <v>16</v>
+      </c>
+      <c r="E884">
+        <v>3</v>
+      </c>
+      <c r="F884">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A885">
+        <v>2010</v>
+      </c>
+      <c r="B885" t="s">
+        <v>151</v>
+      </c>
+      <c r="C885" t="s">
+        <v>7</v>
+      </c>
+      <c r="D885">
+        <v>5</v>
+      </c>
+      <c r="E885">
+        <v>1</v>
+      </c>
+      <c r="F885">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A886">
+        <v>2010</v>
+      </c>
+      <c r="B886" t="s">
+        <v>110</v>
+      </c>
+      <c r="C886" t="s">
+        <v>7</v>
+      </c>
+      <c r="D886">
+        <v>2</v>
+      </c>
+      <c r="E886">
+        <v>0</v>
+      </c>
+      <c r="F886">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A887">
+        <v>2010</v>
+      </c>
+      <c r="B887" t="s">
+        <v>152</v>
+      </c>
+      <c r="C887" t="s">
+        <v>7</v>
+      </c>
+      <c r="D887">
+        <v>4</v>
+      </c>
+      <c r="E887">
+        <v>0</v>
+      </c>
+      <c r="F887">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A888">
+        <v>2010</v>
+      </c>
+      <c r="B888" t="s">
+        <v>89</v>
+      </c>
+      <c r="C888" t="s">
+        <v>7</v>
+      </c>
+      <c r="D888">
+        <v>54</v>
+      </c>
+      <c r="E888">
+        <v>14</v>
+      </c>
+      <c r="F888">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A889">
+        <v>2010</v>
+      </c>
+      <c r="B889" t="s">
+        <v>128</v>
+      </c>
+      <c r="C889" t="s">
+        <v>7</v>
+      </c>
+      <c r="D889">
+        <v>0</v>
+      </c>
+      <c r="E889">
+        <v>0</v>
+      </c>
+      <c r="F889">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A890">
+        <v>2010</v>
+      </c>
+      <c r="B890" t="s">
+        <v>91</v>
+      </c>
+      <c r="C890" t="s">
+        <v>7</v>
+      </c>
+      <c r="D890">
+        <v>21</v>
+      </c>
+      <c r="E890">
+        <v>3</v>
+      </c>
+      <c r="F890">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A891">
+        <v>2010</v>
+      </c>
+      <c r="B891" t="s">
+        <v>153</v>
+      </c>
+      <c r="C891" t="s">
+        <v>7</v>
+      </c>
+      <c r="D891">
+        <v>20</v>
+      </c>
+      <c r="E891">
+        <v>5</v>
+      </c>
+      <c r="F891">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A892">
+        <v>2010</v>
+      </c>
+      <c r="B892" t="s">
+        <v>131</v>
+      </c>
+      <c r="C892" t="s">
+        <v>7</v>
+      </c>
+      <c r="D892">
+        <v>0</v>
+      </c>
+      <c r="E892">
+        <v>0</v>
+      </c>
+      <c r="F892">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A893">
+        <v>2010</v>
+      </c>
+      <c r="B893" t="s">
+        <v>154</v>
+      </c>
+      <c r="C893" t="s">
+        <v>7</v>
+      </c>
+      <c r="D893">
+        <v>7</v>
+      </c>
+      <c r="E893">
+        <v>0</v>
+      </c>
+      <c r="F893">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A894">
+        <v>2010</v>
+      </c>
+      <c r="B894" t="s">
+        <v>94</v>
+      </c>
+      <c r="C894" t="s">
+        <v>7</v>
+      </c>
+      <c r="D894">
+        <v>0</v>
+      </c>
+      <c r="E894">
+        <v>0</v>
+      </c>
+      <c r="F894">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A895">
+        <v>2010</v>
+      </c>
+      <c r="B895" t="s">
+        <v>155</v>
+      </c>
+      <c r="C895" t="s">
+        <v>7</v>
+      </c>
+      <c r="D895">
+        <v>0</v>
+      </c>
+      <c r="E895">
+        <v>0</v>
+      </c>
+      <c r="F895">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A896">
+        <v>2010</v>
+      </c>
+      <c r="B896" t="s">
+        <v>156</v>
+      </c>
+      <c r="C896" t="s">
+        <v>7</v>
+      </c>
+      <c r="D896">
+        <v>0</v>
+      </c>
+      <c r="E896">
+        <v>0</v>
+      </c>
+      <c r="F896">
+        <f t="shared" ref="F896" si="1">E896+D896</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A897">
+        <v>2008</v>
+      </c>
+      <c r="B897" t="s">
+        <v>67</v>
+      </c>
+      <c r="C897" t="s">
+        <v>64</v>
+      </c>
+      <c r="D897">
+        <v>1</v>
+      </c>
+      <c r="E897">
+        <v>0</v>
+      </c>
+      <c r="F897">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="898" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A898">
+        <v>2008</v>
+      </c>
+      <c r="B898" t="s">
+        <v>157</v>
+      </c>
+      <c r="C898" t="s">
+        <v>64</v>
+      </c>
+      <c r="D898">
+        <v>2</v>
+      </c>
+      <c r="E898">
+        <v>0</v>
+      </c>
+      <c r="F898">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="899" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A899">
+        <v>2008</v>
+      </c>
+      <c r="B899" t="s">
+        <v>141</v>
+      </c>
+      <c r="C899" t="s">
+        <v>64</v>
+      </c>
+      <c r="D899">
+        <v>1</v>
+      </c>
+      <c r="E899">
+        <v>0</v>
+      </c>
+      <c r="F899">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A900">
+        <v>2008</v>
+      </c>
+      <c r="B900" t="s">
+        <v>142</v>
+      </c>
+      <c r="C900" t="s">
+        <v>64</v>
+      </c>
+      <c r="D900">
+        <v>1</v>
+      </c>
+      <c r="E900">
+        <v>0</v>
+      </c>
+      <c r="F900">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A901">
+        <v>2008</v>
+      </c>
+      <c r="B901" t="s">
+        <v>158</v>
+      </c>
+      <c r="C901" t="s">
+        <v>64</v>
+      </c>
+      <c r="D901">
+        <v>1</v>
+      </c>
+      <c r="E901">
+        <v>0</v>
+      </c>
+      <c r="F901">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A902">
+        <v>2008</v>
+      </c>
+      <c r="B902" t="s">
+        <v>159</v>
+      </c>
+      <c r="C902" t="s">
+        <v>64</v>
+      </c>
+      <c r="D902">
+        <v>388</v>
+      </c>
+      <c r="E902">
+        <v>14</v>
+      </c>
+      <c r="F902">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A903">
+        <v>2008</v>
+      </c>
+      <c r="B903" t="s">
+        <v>119</v>
+      </c>
+      <c r="C903" t="s">
+        <v>64</v>
+      </c>
+      <c r="D903">
+        <v>3</v>
+      </c>
+      <c r="E903">
+        <v>0</v>
+      </c>
+      <c r="F903">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A904">
+        <v>2008</v>
+      </c>
+      <c r="B904" t="s">
+        <v>160</v>
+      </c>
+      <c r="C904" t="s">
+        <v>64</v>
+      </c>
+      <c r="D904">
+        <v>135</v>
+      </c>
+      <c r="E904">
+        <v>12</v>
+      </c>
+      <c r="F904">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A905">
+        <v>2008</v>
+      </c>
+      <c r="B905" t="s">
+        <v>161</v>
+      </c>
+      <c r="C905" t="s">
+        <v>64</v>
+      </c>
+      <c r="D905">
+        <v>66</v>
+      </c>
+      <c r="E905">
+        <v>9</v>
+      </c>
+      <c r="F905">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A906">
+        <v>2008</v>
+      </c>
+      <c r="B906" t="s">
+        <v>144</v>
+      </c>
+      <c r="C906" t="s">
+        <v>64</v>
+      </c>
+      <c r="D906">
+        <v>1</v>
+      </c>
+      <c r="E906">
+        <v>0</v>
+      </c>
+      <c r="F906">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A907">
+        <v>2008</v>
+      </c>
+      <c r="B907" t="s">
+        <v>98</v>
+      </c>
+      <c r="C907" t="s">
+        <v>64</v>
+      </c>
+      <c r="D907">
+        <v>1</v>
+      </c>
+      <c r="E907">
+        <v>0</v>
+      </c>
+      <c r="F907">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A908">
+        <v>2008</v>
+      </c>
+      <c r="B908" t="s">
+        <v>77</v>
+      </c>
+      <c r="C908" t="s">
+        <v>64</v>
+      </c>
+      <c r="D908">
+        <v>0</v>
+      </c>
+      <c r="E908">
+        <v>0</v>
+      </c>
+      <c r="F908">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A909">
+        <v>2008</v>
+      </c>
+      <c r="B909" t="s">
+        <v>146</v>
+      </c>
+      <c r="C909" t="s">
+        <v>64</v>
+      </c>
+      <c r="D909">
+        <v>1</v>
+      </c>
+      <c r="E909">
+        <v>0</v>
+      </c>
+      <c r="F909">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A910">
+        <v>2008</v>
+      </c>
+      <c r="B910" t="s">
+        <v>162</v>
+      </c>
+      <c r="C910" t="s">
+        <v>64</v>
+      </c>
+      <c r="D910">
+        <v>7</v>
+      </c>
+      <c r="E910">
+        <v>3</v>
+      </c>
+      <c r="F910">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="911" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A911">
+        <v>2008</v>
+      </c>
+      <c r="B911" t="s">
+        <v>163</v>
+      </c>
+      <c r="C911" t="s">
+        <v>7</v>
+      </c>
+      <c r="D911">
+        <v>26</v>
+      </c>
+      <c r="E911">
+        <v>2</v>
+      </c>
+      <c r="F911">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A912">
+        <v>2008</v>
+      </c>
+      <c r="B912" t="s">
+        <v>164</v>
+      </c>
+      <c r="C912" t="s">
+        <v>7</v>
+      </c>
+      <c r="D912">
+        <v>144</v>
+      </c>
+      <c r="E912">
+        <v>4</v>
+      </c>
+      <c r="F912">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A913">
+        <v>2008</v>
+      </c>
+      <c r="B913" t="s">
+        <v>165</v>
+      </c>
+      <c r="C913" t="s">
+        <v>7</v>
+      </c>
+      <c r="D913">
+        <v>0</v>
+      </c>
+      <c r="E913">
+        <v>0</v>
+      </c>
+      <c r="F913">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A914">
+        <v>2008</v>
+      </c>
+      <c r="B914" t="s">
+        <v>166</v>
+      </c>
+      <c r="C914" t="s">
+        <v>7</v>
+      </c>
+      <c r="D914">
+        <v>36</v>
+      </c>
+      <c r="E914">
+        <v>3</v>
+      </c>
+      <c r="F914">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A915">
+        <v>2008</v>
+      </c>
+      <c r="B915" t="s">
+        <v>167</v>
+      </c>
+      <c r="C915" t="s">
+        <v>7</v>
+      </c>
+      <c r="D915">
+        <v>0</v>
+      </c>
+      <c r="E915">
+        <v>0</v>
+      </c>
+      <c r="F915">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A916">
+        <v>2008</v>
+      </c>
+      <c r="B916" t="s">
+        <v>168</v>
+      </c>
+      <c r="C916" t="s">
+        <v>7</v>
+      </c>
+      <c r="D916">
+        <v>0</v>
+      </c>
+      <c r="E916">
+        <v>0</v>
+      </c>
+      <c r="F916">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A917">
+        <v>2008</v>
+      </c>
+      <c r="B917" t="s">
+        <v>169</v>
+      </c>
+      <c r="C917" t="s">
+        <v>7</v>
+      </c>
+      <c r="D917">
+        <v>42</v>
+      </c>
+      <c r="E917">
+        <v>4</v>
+      </c>
+      <c r="F917">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="918" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A918">
+        <v>2008</v>
+      </c>
+      <c r="B918" t="s">
+        <v>170</v>
+      </c>
+      <c r="C918" t="s">
+        <v>7</v>
+      </c>
+      <c r="D918">
+        <v>21</v>
+      </c>
+      <c r="E918">
+        <v>6</v>
+      </c>
+      <c r="F918">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="919" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A919">
+        <v>2008</v>
+      </c>
+      <c r="B919" t="s">
+        <v>171</v>
+      </c>
+      <c r="C919" t="s">
+        <v>7</v>
+      </c>
+      <c r="D919">
+        <v>2</v>
+      </c>
+      <c r="E919">
+        <v>0</v>
+      </c>
+      <c r="F919">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="920" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A920">
+        <v>2008</v>
+      </c>
+      <c r="B920" t="s">
+        <v>110</v>
+      </c>
+      <c r="C920" t="s">
+        <v>7</v>
+      </c>
+      <c r="D920">
+        <v>2</v>
+      </c>
+      <c r="E920">
+        <v>0</v>
+      </c>
+      <c r="F920">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="921" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A921">
+        <v>2008</v>
+      </c>
+      <c r="B921" t="s">
+        <v>125</v>
+      </c>
+      <c r="C921" t="s">
+        <v>7</v>
+      </c>
+      <c r="D921">
+        <v>9</v>
+      </c>
+      <c r="E921">
+        <v>1</v>
+      </c>
+      <c r="F921">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A922">
+        <v>2008</v>
+      </c>
+      <c r="B922" t="s">
+        <v>89</v>
+      </c>
+      <c r="C922" t="s">
+        <v>7</v>
+      </c>
+      <c r="D922">
+        <v>43</v>
+      </c>
+      <c r="E922">
+        <v>8</v>
+      </c>
+      <c r="F922">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A923">
+        <v>2008</v>
+      </c>
+      <c r="B923" t="s">
+        <v>172</v>
+      </c>
+      <c r="C923" t="s">
+        <v>7</v>
+      </c>
+      <c r="D923">
+        <v>33</v>
+      </c>
+      <c r="E923">
+        <v>5</v>
+      </c>
+      <c r="F923">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A924">
+        <v>2008</v>
+      </c>
+      <c r="B924" t="s">
+        <v>153</v>
+      </c>
+      <c r="C924" t="s">
+        <v>7</v>
+      </c>
+      <c r="D924">
+        <v>14</v>
+      </c>
+      <c r="E924">
+        <v>9</v>
+      </c>
+      <c r="F924">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="925" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A925">
+        <v>2008</v>
+      </c>
+      <c r="B925" t="s">
+        <v>131</v>
+      </c>
+      <c r="C925" t="s">
+        <v>7</v>
+      </c>
+      <c r="D925">
+        <v>0</v>
+      </c>
+      <c r="E925">
+        <v>0</v>
+      </c>
+      <c r="F925">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A926">
+        <v>2008</v>
+      </c>
+      <c r="B926" t="s">
+        <v>173</v>
+      </c>
+      <c r="C926" t="s">
+        <v>7</v>
+      </c>
+      <c r="D926">
+        <v>13</v>
+      </c>
+      <c r="E926">
+        <v>0</v>
+      </c>
+      <c r="F926">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="927" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A927">
+        <v>2007</v>
+      </c>
+      <c r="B927" t="s">
+        <v>67</v>
+      </c>
+      <c r="C927" t="s">
+        <v>64</v>
+      </c>
+      <c r="D927">
+        <v>0</v>
+      </c>
+      <c r="E927">
+        <v>0</v>
+      </c>
+      <c r="F927">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A928">
+        <v>2007</v>
+      </c>
+      <c r="B928" t="s">
+        <v>157</v>
+      </c>
+      <c r="C928" t="s">
+        <v>64</v>
+      </c>
+      <c r="D928">
+        <v>0</v>
+      </c>
+      <c r="E928">
+        <v>0</v>
+      </c>
+      <c r="F928">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A929">
+        <v>2007</v>
+      </c>
+      <c r="B929" t="s">
+        <v>141</v>
+      </c>
+      <c r="C929" t="s">
+        <v>64</v>
+      </c>
+      <c r="D929">
+        <v>0</v>
+      </c>
+      <c r="E929">
+        <v>0</v>
+      </c>
+      <c r="F929">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A930">
+        <v>2007</v>
+      </c>
+      <c r="B930" t="s">
+        <v>142</v>
+      </c>
+      <c r="C930" t="s">
+        <v>64</v>
+      </c>
+      <c r="D930">
+        <v>0</v>
+      </c>
+      <c r="E930">
+        <v>0</v>
+      </c>
+      <c r="F930">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A931">
+        <v>2007</v>
+      </c>
+      <c r="B931" t="s">
+        <v>158</v>
+      </c>
+      <c r="C931" t="s">
+        <v>64</v>
+      </c>
+      <c r="D931">
+        <v>0</v>
+      </c>
+      <c r="E931">
+        <v>0</v>
+      </c>
+      <c r="F931">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A932">
+        <v>2007</v>
+      </c>
+      <c r="B932" t="s">
+        <v>159</v>
+      </c>
+      <c r="C932" t="s">
+        <v>64</v>
+      </c>
+      <c r="D932">
+        <v>470</v>
+      </c>
+      <c r="E932">
+        <v>4</v>
+      </c>
+      <c r="F932">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A933">
+        <v>2007</v>
+      </c>
+      <c r="B933" t="s">
+        <v>119</v>
+      </c>
+      <c r="C933" t="s">
+        <v>64</v>
+      </c>
+      <c r="D933">
+        <v>1</v>
+      </c>
+      <c r="E933">
+        <v>0</v>
+      </c>
+      <c r="F933">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A934">
+        <v>2007</v>
+      </c>
+      <c r="B934" t="s">
+        <v>160</v>
+      </c>
+      <c r="C934" t="s">
+        <v>64</v>
+      </c>
+      <c r="D934">
+        <v>3</v>
+      </c>
+      <c r="E934">
+        <v>0</v>
+      </c>
+      <c r="F934">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A935">
+        <v>2007</v>
+      </c>
+      <c r="B935" t="s">
+        <v>161</v>
+      </c>
+      <c r="C935" t="s">
+        <v>64</v>
+      </c>
+      <c r="D935">
+        <v>0</v>
+      </c>
+      <c r="E935">
+        <v>0</v>
+      </c>
+      <c r="F935">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A936">
+        <v>2007</v>
+      </c>
+      <c r="B936" t="s">
+        <v>144</v>
+      </c>
+      <c r="C936" t="s">
+        <v>64</v>
+      </c>
+      <c r="D936">
+        <v>1</v>
+      </c>
+      <c r="E936">
+        <v>0</v>
+      </c>
+      <c r="F936">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A937">
+        <v>2007</v>
+      </c>
+      <c r="B937" t="s">
+        <v>98</v>
+      </c>
+      <c r="C937" t="s">
+        <v>64</v>
+      </c>
+      <c r="D937">
+        <v>251</v>
+      </c>
+      <c r="E937">
+        <v>6</v>
+      </c>
+      <c r="F937">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A938">
+        <v>2007</v>
+      </c>
+      <c r="B938" t="s">
+        <v>77</v>
+      </c>
+      <c r="C938" t="s">
+        <v>64</v>
+      </c>
+      <c r="D938">
+        <v>3</v>
+      </c>
+      <c r="E938">
+        <v>0</v>
+      </c>
+      <c r="F938">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A939">
+        <v>2007</v>
+      </c>
+      <c r="B939" t="s">
+        <v>146</v>
+      </c>
+      <c r="C939" t="s">
+        <v>64</v>
+      </c>
+      <c r="D939">
+        <v>0</v>
+      </c>
+      <c r="E939">
+        <v>0</v>
+      </c>
+      <c r="F939">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A940">
+        <v>2007</v>
+      </c>
+      <c r="B940" t="s">
+        <v>162</v>
+      </c>
+      <c r="C940" t="s">
+        <v>64</v>
+      </c>
+      <c r="D940">
+        <v>20</v>
+      </c>
+      <c r="E940">
+        <v>5</v>
+      </c>
+      <c r="F940">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="941" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A941">
+        <v>2007</v>
+      </c>
+      <c r="B941" t="s">
+        <v>163</v>
+      </c>
+      <c r="C941" t="s">
+        <v>7</v>
+      </c>
+      <c r="D941">
+        <v>1</v>
+      </c>
+      <c r="E941">
+        <v>0</v>
+      </c>
+      <c r="F941">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A942">
+        <v>2007</v>
+      </c>
+      <c r="B942" t="s">
+        <v>164</v>
+      </c>
+      <c r="C942" t="s">
+        <v>7</v>
+      </c>
+      <c r="D942">
+        <v>97</v>
+      </c>
+      <c r="E942">
+        <v>0</v>
+      </c>
+      <c r="F942">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="943" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A943">
+        <v>2007</v>
+      </c>
+      <c r="B943" t="s">
+        <v>165</v>
+      </c>
+      <c r="C943" t="s">
+        <v>7</v>
+      </c>
+      <c r="D943">
+        <v>3</v>
+      </c>
+      <c r="E943">
+        <v>0</v>
+      </c>
+      <c r="F943">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A944">
+        <v>2007</v>
+      </c>
+      <c r="B944" t="s">
+        <v>166</v>
+      </c>
+      <c r="C944" t="s">
+        <v>7</v>
+      </c>
+      <c r="D944">
+        <v>5</v>
+      </c>
+      <c r="E944">
+        <v>0</v>
+      </c>
+      <c r="F944">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="945" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A945">
+        <v>2007</v>
+      </c>
+      <c r="B945" t="s">
+        <v>167</v>
+      </c>
+      <c r="C945" t="s">
+        <v>7</v>
+      </c>
+      <c r="D945">
+        <v>3</v>
+      </c>
+      <c r="E945">
+        <v>0</v>
+      </c>
+      <c r="F945">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A946">
+        <v>2007</v>
+      </c>
+      <c r="B946" t="s">
+        <v>168</v>
+      </c>
+      <c r="C946" t="s">
+        <v>7</v>
+      </c>
+      <c r="D946">
+        <v>42</v>
+      </c>
+      <c r="E946">
+        <v>6</v>
+      </c>
+      <c r="F946">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="947" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A947">
+        <v>2007</v>
+      </c>
+      <c r="B947" t="s">
+        <v>169</v>
+      </c>
+      <c r="C947" t="s">
+        <v>7</v>
+      </c>
+      <c r="D947">
+        <v>0</v>
+      </c>
+      <c r="E947">
+        <v>0</v>
+      </c>
+      <c r="F947">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A948">
+        <v>2007</v>
+      </c>
+      <c r="B948" t="s">
+        <v>170</v>
+      </c>
+      <c r="C948" t="s">
+        <v>7</v>
+      </c>
+      <c r="D948">
+        <v>22</v>
+      </c>
+      <c r="E948">
+        <v>6</v>
+      </c>
+      <c r="F948">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="949" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A949">
+        <v>2007</v>
+      </c>
+      <c r="B949" t="s">
+        <v>171</v>
+      </c>
+      <c r="C949" t="s">
+        <v>7</v>
+      </c>
+      <c r="D949">
+        <v>2</v>
+      </c>
+      <c r="E949">
+        <v>0</v>
+      </c>
+      <c r="F949">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="950" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A950">
+        <v>2007</v>
+      </c>
+      <c r="B950" t="s">
+        <v>110</v>
+      </c>
+      <c r="C950" t="s">
+        <v>7</v>
+      </c>
+      <c r="D950">
+        <v>0</v>
+      </c>
+      <c r="E950">
+        <v>0</v>
+      </c>
+      <c r="F950">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A951">
+        <v>2007</v>
+      </c>
+      <c r="B951" t="s">
+        <v>125</v>
+      </c>
+      <c r="C951" t="s">
+        <v>7</v>
+      </c>
+      <c r="D951">
+        <v>1</v>
+      </c>
+      <c r="E951">
+        <v>0</v>
+      </c>
+      <c r="F951">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A952">
+        <v>2007</v>
+      </c>
+      <c r="B952" t="s">
+        <v>89</v>
+      </c>
+      <c r="C952" t="s">
+        <v>7</v>
+      </c>
+      <c r="D952">
+        <v>31</v>
+      </c>
+      <c r="E952">
+        <v>11</v>
+      </c>
+      <c r="F952">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="953" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A953">
+        <v>2007</v>
+      </c>
+      <c r="B953" t="s">
+        <v>172</v>
+      </c>
+      <c r="C953" t="s">
+        <v>7</v>
+      </c>
+      <c r="D953">
+        <v>84</v>
+      </c>
+      <c r="E953">
+        <v>11</v>
+      </c>
+      <c r="F953">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="954" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A954">
+        <v>2007</v>
+      </c>
+      <c r="B954" t="s">
+        <v>153</v>
+      </c>
+      <c r="C954" t="s">
+        <v>7</v>
+      </c>
+      <c r="D954">
+        <v>12</v>
+      </c>
+      <c r="E954">
+        <v>3</v>
+      </c>
+      <c r="F954">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A955">
+        <v>2007</v>
+      </c>
+      <c r="B955" t="s">
+        <v>131</v>
+      </c>
+      <c r="C955" t="s">
+        <v>7</v>
+      </c>
+      <c r="D955">
+        <v>2</v>
+      </c>
+      <c r="E955">
+        <v>0</v>
+      </c>
+      <c r="F955">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A956">
+        <v>2007</v>
+      </c>
+      <c r="B956" t="s">
+        <v>173</v>
+      </c>
+      <c r="C956" t="s">
+        <v>7</v>
+      </c>
+      <c r="D956">
+        <v>17</v>
+      </c>
+      <c r="E956">
+        <v>2</v>
+      </c>
+      <c r="F956">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="957" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A957">
+        <v>2006</v>
+      </c>
+      <c r="B957" t="s">
+        <v>174</v>
+      </c>
+      <c r="C957" t="s">
+        <v>64</v>
+      </c>
+      <c r="D957">
+        <v>1</v>
+      </c>
+      <c r="E957">
+        <v>0</v>
+      </c>
+      <c r="F957">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A958">
+        <v>2006</v>
+      </c>
+      <c r="B958" t="s">
+        <v>159</v>
+      </c>
+      <c r="C958" t="s">
+        <v>64</v>
+      </c>
+      <c r="D958">
+        <v>298</v>
+      </c>
+      <c r="E958">
+        <v>4</v>
+      </c>
+      <c r="F958">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="959" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A959">
+        <v>2006</v>
+      </c>
+      <c r="B959" t="s">
+        <v>119</v>
+      </c>
+      <c r="C959" t="s">
+        <v>64</v>
+      </c>
+      <c r="D959">
+        <v>0</v>
+      </c>
+      <c r="E959">
+        <v>0</v>
+      </c>
+      <c r="F959">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A960">
+        <v>2006</v>
+      </c>
+      <c r="B960" t="s">
+        <v>175</v>
+      </c>
+      <c r="C960" t="s">
+        <v>64</v>
+      </c>
+      <c r="D960">
+        <v>22</v>
+      </c>
+      <c r="E960">
+        <v>0</v>
+      </c>
+      <c r="F960">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="961" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A961">
+        <v>2006</v>
+      </c>
+      <c r="B961" t="s">
+        <v>144</v>
+      </c>
+      <c r="C961" t="s">
+        <v>64</v>
+      </c>
+      <c r="D961">
+        <v>2</v>
+      </c>
+      <c r="E961">
+        <v>0</v>
+      </c>
+      <c r="F961">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="962" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A962">
+        <v>2006</v>
+      </c>
+      <c r="B962" t="s">
+        <v>176</v>
+      </c>
+      <c r="C962" t="s">
+        <v>64</v>
+      </c>
+      <c r="D962">
+        <v>65</v>
+      </c>
+      <c r="E962">
+        <v>0</v>
+      </c>
+      <c r="F962">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A963">
+        <v>2006</v>
+      </c>
+      <c r="B963" t="s">
+        <v>78</v>
+      </c>
+      <c r="C963" t="s">
+        <v>64</v>
+      </c>
+      <c r="D963">
+        <v>8</v>
+      </c>
+      <c r="E963">
+        <v>1</v>
+      </c>
+      <c r="F963">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A964">
+        <v>2006</v>
+      </c>
+      <c r="B964" t="s">
+        <v>146</v>
+      </c>
+      <c r="C964" t="s">
+        <v>64</v>
+      </c>
+      <c r="D964">
+        <v>2</v>
+      </c>
+      <c r="E964">
+        <v>0</v>
+      </c>
+      <c r="F964">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="965" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A965">
+        <v>2006</v>
+      </c>
+      <c r="B965" t="s">
+        <v>99</v>
+      </c>
+      <c r="C965" t="s">
+        <v>64</v>
+      </c>
+      <c r="D965">
+        <v>76</v>
+      </c>
+      <c r="E965">
+        <v>5</v>
+      </c>
+      <c r="F965">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A966">
+        <v>2006</v>
+      </c>
+      <c r="B966" t="s">
+        <v>177</v>
+      </c>
+      <c r="C966" t="s">
+        <v>64</v>
+      </c>
+      <c r="D966">
+        <v>1</v>
+      </c>
+      <c r="E966">
+        <v>0</v>
+      </c>
+      <c r="F966">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="967" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A967">
+        <v>2006</v>
+      </c>
+      <c r="B967" t="s">
+        <v>178</v>
+      </c>
+      <c r="C967" t="s">
+        <v>7</v>
+      </c>
+      <c r="D967">
+        <v>7</v>
+      </c>
+      <c r="E967">
+        <v>0</v>
+      </c>
+      <c r="F967">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="968" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A968">
+        <v>2006</v>
+      </c>
+      <c r="B968" t="s">
+        <v>179</v>
+      </c>
+      <c r="C968" t="s">
+        <v>7</v>
+      </c>
+      <c r="D968">
+        <v>76</v>
+      </c>
+      <c r="E968">
+        <v>0</v>
+      </c>
+      <c r="F968">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="969" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A969">
+        <v>2006</v>
+      </c>
+      <c r="B969" t="s">
+        <v>180</v>
+      </c>
+      <c r="C969" t="s">
+        <v>7</v>
+      </c>
+      <c r="D969">
+        <v>11</v>
+      </c>
+      <c r="E969">
+        <v>0</v>
+      </c>
+      <c r="F969">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="970" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A970">
+        <v>2006</v>
+      </c>
+      <c r="B970" t="s">
+        <v>181</v>
+      </c>
+      <c r="C970" t="s">
+        <v>7</v>
+      </c>
+      <c r="D970">
+        <v>51</v>
+      </c>
+      <c r="E970">
+        <v>2</v>
+      </c>
+      <c r="F970">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="971" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A971">
+        <v>2006</v>
+      </c>
+      <c r="B971" t="s">
+        <v>182</v>
+      </c>
+      <c r="C971" t="s">
+        <v>7</v>
+      </c>
+      <c r="D971">
+        <v>1</v>
+      </c>
+      <c r="E971">
+        <v>0</v>
+      </c>
+      <c r="F971">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="972" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A972">
+        <v>2006</v>
+      </c>
+      <c r="B972" t="s">
+        <v>169</v>
+      </c>
+      <c r="C972" t="s">
+        <v>7</v>
+      </c>
+      <c r="D972">
+        <v>29</v>
+      </c>
+      <c r="E972">
+        <v>1</v>
+      </c>
+      <c r="F972">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="973" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A973">
+        <v>2006</v>
+      </c>
+      <c r="B973" t="s">
+        <v>183</v>
+      </c>
+      <c r="C973" t="s">
+        <v>7</v>
+      </c>
+      <c r="D973">
+        <v>4</v>
+      </c>
+      <c r="E973">
+        <v>2</v>
+      </c>
+      <c r="F973">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="974" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A974">
+        <v>2006</v>
+      </c>
+      <c r="B974" t="s">
+        <v>124</v>
+      </c>
+      <c r="C974" t="s">
+        <v>7</v>
+      </c>
+      <c r="D974">
+        <v>3</v>
+      </c>
+      <c r="E974">
+        <v>0</v>
+      </c>
+      <c r="F974">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="975" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A975">
+        <v>2006</v>
+      </c>
+      <c r="B975" t="s">
+        <v>184</v>
+      </c>
+      <c r="C975" t="s">
+        <v>7</v>
+      </c>
+      <c r="D975">
+        <v>6</v>
+      </c>
+      <c r="E975">
+        <v>0</v>
+      </c>
+      <c r="F975">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="976" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A976">
+        <v>2006</v>
+      </c>
+      <c r="B976" t="s">
+        <v>185</v>
+      </c>
+      <c r="C976" t="s">
+        <v>7</v>
+      </c>
+      <c r="D976">
+        <v>47</v>
+      </c>
+      <c r="E976">
+        <v>4</v>
+      </c>
+      <c r="F976">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="977" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A977">
+        <v>2006</v>
+      </c>
+      <c r="B977" t="s">
+        <v>128</v>
+      </c>
+      <c r="C977" t="s">
+        <v>7</v>
+      </c>
+      <c r="D977">
+        <v>31</v>
+      </c>
+      <c r="E977">
+        <v>3</v>
+      </c>
+      <c r="F977">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="978" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A978">
+        <v>2006</v>
+      </c>
+      <c r="B978" t="s">
+        <v>186</v>
+      </c>
+      <c r="C978" t="s">
+        <v>7</v>
+      </c>
+      <c r="D978">
+        <v>2</v>
+      </c>
+      <c r="E978">
+        <v>0</v>
+      </c>
+      <c r="F978">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="979" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A979">
+        <v>2006</v>
+      </c>
+      <c r="B979" t="s">
+        <v>153</v>
+      </c>
+      <c r="C979" t="s">
+        <v>7</v>
+      </c>
+      <c r="D979">
+        <v>18</v>
+      </c>
+      <c r="E979">
+        <v>5</v>
+      </c>
+      <c r="F979">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="980" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A980">
+        <v>2006</v>
+      </c>
+      <c r="B980" t="s">
+        <v>132</v>
+      </c>
+      <c r="C980" t="s">
+        <v>7</v>
+      </c>
+      <c r="D980">
+        <v>1</v>
+      </c>
+      <c r="E980">
+        <v>0</v>
+      </c>
+      <c r="F980">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A981">
+        <v>2006</v>
+      </c>
+      <c r="B981" t="s">
+        <v>136</v>
+      </c>
+      <c r="C981" t="s">
+        <v>7</v>
+      </c>
+      <c r="D981">
+        <v>0</v>
+      </c>
+      <c r="E981">
+        <v>0</v>
+      </c>
+      <c r="F981">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A982">
+        <v>2006</v>
+      </c>
+      <c r="B982" t="s">
+        <v>137</v>
+      </c>
+      <c r="C982" t="s">
+        <v>7</v>
+      </c>
+      <c r="D982">
+        <v>0</v>
+      </c>
+      <c r="E982">
+        <v>0</v>
+      </c>
+      <c r="F982">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A983">
+        <v>2006</v>
+      </c>
+      <c r="B983" t="s">
+        <v>94</v>
+      </c>
+      <c r="C983" t="s">
+        <v>7</v>
+      </c>
+      <c r="D983">
+        <v>1</v>
+      </c>
+      <c r="E983">
+        <v>0</v>
+      </c>
+      <c r="F983">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="984" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A984">
+        <v>2005</v>
+      </c>
+      <c r="B984" t="s">
+        <v>174</v>
+      </c>
+      <c r="C984" t="s">
+        <v>64</v>
+      </c>
+      <c r="D984">
+        <v>14</v>
+      </c>
+      <c r="E984">
+        <v>0</v>
+      </c>
+      <c r="F984">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="985" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A985">
+        <v>2005</v>
+      </c>
+      <c r="B985" t="s">
+        <v>159</v>
+      </c>
+      <c r="C985" t="s">
+        <v>64</v>
+      </c>
+      <c r="D985">
+        <v>303</v>
+      </c>
+      <c r="E985">
+        <v>4</v>
+      </c>
+      <c r="F985">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="986" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A986">
+        <v>2005</v>
+      </c>
+      <c r="B986" t="s">
+        <v>119</v>
+      </c>
+      <c r="C986" t="s">
+        <v>64</v>
+      </c>
+      <c r="D986">
+        <v>3</v>
+      </c>
+      <c r="E986">
+        <v>0</v>
+      </c>
+      <c r="F986">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="987" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A987">
+        <v>2005</v>
+      </c>
+      <c r="B987" t="s">
+        <v>175</v>
+      </c>
+      <c r="C987" t="s">
+        <v>64</v>
+      </c>
+      <c r="D987">
+        <v>68</v>
+      </c>
+      <c r="E987">
+        <v>1</v>
+      </c>
+      <c r="F987">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="988" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A988">
+        <v>2005</v>
+      </c>
+      <c r="B988" t="s">
+        <v>144</v>
+      </c>
+      <c r="C988" t="s">
+        <v>64</v>
+      </c>
+      <c r="D988">
+        <v>1</v>
+      </c>
+      <c r="E988">
+        <v>0</v>
+      </c>
+      <c r="F988">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="989" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A989">
+        <v>2005</v>
+      </c>
+      <c r="B989" t="s">
+        <v>176</v>
+      </c>
+      <c r="C989" t="s">
+        <v>64</v>
+      </c>
+      <c r="D989">
+        <v>19</v>
+      </c>
+      <c r="E989">
+        <v>0</v>
+      </c>
+      <c r="F989">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="990" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A990">
+        <v>2005</v>
+      </c>
+      <c r="B990" t="s">
+        <v>78</v>
+      </c>
+      <c r="C990" t="s">
+        <v>64</v>
+      </c>
+      <c r="D990">
+        <v>0</v>
+      </c>
+      <c r="E990">
+        <v>0</v>
+      </c>
+      <c r="F990">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A991">
+        <v>2005</v>
+      </c>
+      <c r="B991" t="s">
+        <v>146</v>
+      </c>
+      <c r="C991" t="s">
+        <v>64</v>
+      </c>
+      <c r="D991">
+        <v>0</v>
+      </c>
+      <c r="E991">
+        <v>0</v>
+      </c>
+      <c r="F991">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A992">
+        <v>2005</v>
+      </c>
+      <c r="B992" t="s">
+        <v>99</v>
+      </c>
+      <c r="C992" t="s">
+        <v>64</v>
+      </c>
+      <c r="D992">
+        <v>22</v>
+      </c>
+      <c r="E992">
+        <v>0</v>
+      </c>
+      <c r="F992">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="993" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A993">
+        <v>2005</v>
+      </c>
+      <c r="B993" t="s">
+        <v>177</v>
+      </c>
+      <c r="C993" t="s">
+        <v>64</v>
+      </c>
+      <c r="D993">
+        <v>2</v>
+      </c>
+      <c r="E993">
+        <v>0</v>
+      </c>
+      <c r="F993">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="994" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A994">
+        <v>2005</v>
+      </c>
+      <c r="B994" t="s">
+        <v>178</v>
+      </c>
+      <c r="C994" t="s">
+        <v>7</v>
+      </c>
+      <c r="D994">
+        <v>5</v>
+      </c>
+      <c r="E994">
+        <v>0</v>
+      </c>
+      <c r="F994">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="995" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A995">
+        <v>2005</v>
+      </c>
+      <c r="B995" t="s">
+        <v>179</v>
+      </c>
+      <c r="C995" t="s">
+        <v>7</v>
+      </c>
+      <c r="D995">
+        <v>103</v>
+      </c>
+      <c r="E995">
+        <v>1</v>
+      </c>
+      <c r="F995">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="996" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A996">
+        <v>2005</v>
+      </c>
+      <c r="B996" t="s">
+        <v>180</v>
+      </c>
+      <c r="C996" t="s">
+        <v>7</v>
+      </c>
+      <c r="D996">
+        <v>3</v>
+      </c>
+      <c r="E996">
+        <v>1</v>
+      </c>
+      <c r="F996">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="997" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A997">
+        <v>2005</v>
+      </c>
+      <c r="B997" t="s">
+        <v>181</v>
+      </c>
+      <c r="C997" t="s">
+        <v>7</v>
+      </c>
+      <c r="D997">
+        <v>29</v>
+      </c>
+      <c r="E997">
+        <v>3</v>
+      </c>
+      <c r="F997">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="998" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A998">
+        <v>2005</v>
+      </c>
+      <c r="B998" t="s">
+        <v>182</v>
+      </c>
+      <c r="C998" t="s">
+        <v>7</v>
+      </c>
+      <c r="D998">
+        <v>1</v>
+      </c>
+      <c r="E998">
+        <v>1</v>
+      </c>
+      <c r="F998">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="999" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A999">
+        <v>2005</v>
+      </c>
+      <c r="B999" t="s">
+        <v>169</v>
+      </c>
+      <c r="C999" t="s">
+        <v>7</v>
+      </c>
+      <c r="D999">
+        <v>28</v>
+      </c>
+      <c r="E999">
+        <v>3</v>
+      </c>
+      <c r="F999">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1000">
+        <v>2005</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1000">
+        <v>19</v>
+      </c>
+      <c r="E1000">
+        <v>3</v>
+      </c>
+      <c r="F1000">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1001">
+        <v>2005</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1001">
+        <v>6</v>
+      </c>
+      <c r="E1001">
+        <v>4</v>
+      </c>
+      <c r="F1001">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1002">
+        <v>2005</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1002">
+        <v>13</v>
+      </c>
+      <c r="E1002">
+        <v>0</v>
+      </c>
+      <c r="F1002">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1003">
+        <v>2005</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1003">
+        <v>47</v>
+      </c>
+      <c r="E1003">
+        <v>14</v>
+      </c>
+      <c r="F1003">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1004">
+        <v>2005</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1004">
+        <v>0</v>
+      </c>
+      <c r="E1004">
+        <v>0</v>
+      </c>
+      <c r="F1004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1005">
+        <v>2005</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1005">
+        <v>21</v>
+      </c>
+      <c r="E1005">
+        <v>6</v>
+      </c>
+      <c r="F1005">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1006">
+        <v>2005</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1006">
+        <v>28</v>
+      </c>
+      <c r="E1006">
+        <v>9</v>
+      </c>
+      <c r="F1006">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1007">
+        <v>2005</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1007">
+        <v>22</v>
+      </c>
+      <c r="E1007">
+        <v>3</v>
+      </c>
+      <c r="F1007">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1008">
+        <v>2005</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1008">
+        <v>2</v>
+      </c>
+      <c r="E1008">
+        <v>0</v>
+      </c>
+      <c r="F1008">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1009">
+        <v>2005</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1009">
+        <v>2</v>
+      </c>
+      <c r="E1009">
+        <v>0</v>
+      </c>
+      <c r="F1009">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1010">
+        <v>2005</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1010">
+        <v>0</v>
+      </c>
+      <c r="E1010">
+        <v>0</v>
+      </c>
+      <c r="F1010">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
